--- a/data/trans_orig/P43-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>90728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75392</v>
+        <v>75031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106441</v>
+        <v>107780</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3478330973645892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2890369593962216</v>
+        <v>0.2876529973534091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4080740043554498</v>
+        <v>0.4132081039876515</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>170110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154397</v>
+        <v>153058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185446</v>
+        <v>185807</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6521669026354109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5919259956445503</v>
+        <v>0.5867918960123484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7109630406037784</v>
+        <v>0.7123470026465909</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>182098</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>161145</v>
+        <v>161878</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204116</v>
+        <v>202738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3640858285600766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.322192739313947</v>
+        <v>0.3236568704687778</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.408107572431509</v>
+        <v>0.4053520564343153</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>318054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>296036</v>
+        <v>297414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339007</v>
+        <v>338274</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6359141714399233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5918924275684907</v>
+        <v>0.5946479435656845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.677807260686053</v>
+        <v>0.6763431295312218</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>135996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118990</v>
+        <v>118764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154066</v>
+        <v>153812</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4077462523607828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3567583915212427</v>
+        <v>0.3560806241420116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4619253977554439</v>
+        <v>0.4611651779756739</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>197534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179464</v>
+        <v>179718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214540</v>
+        <v>214766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5922537476392172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5380746022445563</v>
+        <v>0.5388348220243261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6432416084787573</v>
+        <v>0.6439193758579884</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>153130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>136252</v>
+        <v>135726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170805</v>
+        <v>172732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4122431624748321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3668048264030635</v>
+        <v>0.3653900393015663</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4598254501817257</v>
+        <v>0.4650131466647214</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>218326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200651</v>
+        <v>198724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235204</v>
+        <v>235730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5877568375251678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.540174549818274</v>
+        <v>0.5349868533352783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6331951735969366</v>
+        <v>0.6346099606984336</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>61380</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48828</v>
+        <v>48618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75788</v>
+        <v>75065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2992066803190007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2380190011720826</v>
+        <v>0.2369984745541122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3694400771492586</v>
+        <v>0.3659194477970588</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>143762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129354</v>
+        <v>130077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156314</v>
+        <v>156524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7007933196809993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6305599228507405</v>
+        <v>0.6340805522029411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7619809988279171</v>
+        <v>0.7630015254458877</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>106102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88111</v>
+        <v>89794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120958</v>
+        <v>121122</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3827571599355228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3178566105667761</v>
+        <v>0.3239264850021452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4363511669505987</v>
+        <v>0.4369422978535505</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>171102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156246</v>
+        <v>156082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189093</v>
+        <v>187410</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6172428400644772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5636488330494013</v>
+        <v>0.5630577021464496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6821433894332239</v>
+        <v>0.676073514997855</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>276948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>250776</v>
+        <v>250345</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>301598</v>
+        <v>300836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4366483784521988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3953845912833605</v>
+        <v>0.3947060759459396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4755124153889127</v>
+        <v>0.4743109654120002</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>357310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>332660</v>
+        <v>333422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>383482</v>
+        <v>383913</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5633516215478012</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5244875846110872</v>
+        <v>0.5256890345879998</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6046154087166395</v>
+        <v>0.6052939240540605</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>267060</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>239999</v>
+        <v>237884</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>294387</v>
+        <v>293428</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3437444572294974</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3089129249849265</v>
+        <v>0.3061901355645236</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3789184040713875</v>
+        <v>0.3776840717220843</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>509855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>482528</v>
+        <v>483487</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>536916</v>
+        <v>539031</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6562555427705027</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6210815959286126</v>
+        <v>0.6223159282779158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6910870750150737</v>
+        <v>0.6938098644354765</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>1273441</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3790575110326052</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>2086053</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2024365</v>
+        <v>2035331</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2142445</v>
+        <v>2148879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6209424889673948</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6025802624719857</v>
+        <v>0.6058445742786757</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6377284113967759</v>
+        <v>0.6396437040690687</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>145577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128071</v>
+        <v>128293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163767</v>
+        <v>162532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5164124647959287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4543115530487614</v>
+        <v>0.4550980397871849</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5809391948288656</v>
+        <v>0.5765562961548627</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>136324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118134</v>
+        <v>119369</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153830</v>
+        <v>153608</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4835875352040713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4190608051711341</v>
+        <v>0.4234437038451372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5456884469512384</v>
+        <v>0.544901960212815</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>218325</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194745</v>
+        <v>195487</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243012</v>
+        <v>241526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4176604332781347</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.372551019157866</v>
+        <v>0.3739713921571462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4648882815231954</v>
+        <v>0.4620447842115494</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>304408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>279721</v>
+        <v>281207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327988</v>
+        <v>327246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5823395667218654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5351117184768046</v>
+        <v>0.5379552157884508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.627448980842134</v>
+        <v>0.6260286078428543</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>158977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139373</v>
+        <v>140051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178897</v>
+        <v>177058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4675337302715035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4098809799512489</v>
+        <v>0.4118734636959263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5261141970647291</v>
+        <v>0.5207055618327348</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>181057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>161137</v>
+        <v>162976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>200661</v>
+        <v>199983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5324662697284965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.473885802935271</v>
+        <v>0.4792944381672652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5901190200487512</v>
+        <v>0.5881265363040737</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>187193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167956</v>
+        <v>169202</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>205386</v>
+        <v>208515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4837317645963116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4340221970631166</v>
+        <v>0.4372405041669543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.530745011877352</v>
+        <v>0.5388308304118516</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>199783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181590</v>
+        <v>178461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219020</v>
+        <v>217774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5162682354036884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4692549881226482</v>
+        <v>0.4611691695881484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5659778029368836</v>
+        <v>0.5627594958330459</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>104880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90490</v>
+        <v>89952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119596</v>
+        <v>119528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4776139388283701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4120832082170495</v>
+        <v>0.4096337703193406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5446313329213603</v>
+        <v>0.5443215331511199</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>114711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99995</v>
+        <v>100063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129101</v>
+        <v>129639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5223860611716299</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4553686670786394</v>
+        <v>0.4556784668488801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5879167917829504</v>
+        <v>0.5903662296806592</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>136147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118846</v>
+        <v>118726</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151826</v>
+        <v>151825</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4861865818835506</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4244022817292822</v>
+        <v>0.4239743778025925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5421764330342261</v>
+        <v>0.5421738081123215</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>143884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>128205</v>
+        <v>128206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161185</v>
+        <v>161305</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5138134181164494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4578235669657739</v>
+        <v>0.4578261918876785</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5755977182707177</v>
+        <v>0.576025622197408</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>352823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>323563</v>
+        <v>326883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>376869</v>
+        <v>382724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5107320203357133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4683764628611362</v>
+        <v>0.4731818278817589</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5455390482072772</v>
+        <v>0.554014161234087</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>337996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>313950</v>
+        <v>308095</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>367256</v>
+        <v>363936</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4892679796642866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4544609517927226</v>
+        <v>0.445985838765913</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5316235371388638</v>
+        <v>0.5268181721182411</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>363327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>335240</v>
+        <v>335852</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>393612</v>
+        <v>392710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.446087679358423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4116029096397998</v>
+        <v>0.4123546871827504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4832716200091523</v>
+        <v>0.4821642316151012</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>451147</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>420862</v>
+        <v>421764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>479234</v>
+        <v>478622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.553912320641577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.516728379990848</v>
+        <v>0.5178357683848986</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5883970903602004</v>
+        <v>0.5876453128172495</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>1667249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4714326154561919</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>1869309</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1809023</v>
+        <v>1805810</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1931815</v>
+        <v>1929920</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5285673845438081</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5115208686499044</v>
+        <v>0.5106122683130766</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5462415560421008</v>
+        <v>0.545705601711661</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>144413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127041</v>
+        <v>127204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161754</v>
+        <v>162831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.504477440747039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4437918554039316</v>
+        <v>0.444360582725194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5650570424943197</v>
+        <v>0.568819005152804</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>141849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124508</v>
+        <v>123431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159221</v>
+        <v>159058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.495522559252961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4349429575056804</v>
+        <v>0.431180994847196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5562081445960685</v>
+        <v>0.5556394172748066</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>266175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240672</v>
+        <v>243914</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288483</v>
+        <v>288218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5104405245343016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4615335361105719</v>
+        <v>0.4677507933802825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5532213351886353</v>
+        <v>0.5527127255377828</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>255286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>232978</v>
+        <v>233243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>280789</v>
+        <v>277547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4895594754656985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4467786648113647</v>
+        <v>0.4472872744622172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5384664638894281</v>
+        <v>0.5322492066197176</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>187999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169512</v>
+        <v>170036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206125</v>
+        <v>207265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5669289443007837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5111809667787789</v>
+        <v>0.512760858314375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6215897480730077</v>
+        <v>0.625029598553145</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>143610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125484</v>
+        <v>124344</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162097</v>
+        <v>161573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4330710556992163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3784102519269923</v>
+        <v>0.374970401446855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4888190332212211</v>
+        <v>0.487239141685625</v>
       </c>
     </row>
     <row r="12">
@@ -2779,19 +2779,19 @@
         <v>203988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>182595</v>
+        <v>182191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>224387</v>
+        <v>223347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5283599380234471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.472949219696613</v>
+        <v>0.4719029173748281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5811949115932517</v>
+        <v>0.5785017781295941</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>182090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161691</v>
+        <v>162731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203483</v>
+        <v>203887</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4716400619765529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4188050884067484</v>
+        <v>0.4214982218704059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.527050780303387</v>
+        <v>0.5280970826251719</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>114692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100460</v>
+        <v>99923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128480</v>
+        <v>129897</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5267913320765443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4614219988337652</v>
+        <v>0.4589536120084023</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5901206327006097</v>
+        <v>0.5966262815568961</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>103027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89239</v>
+        <v>87822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117259</v>
+        <v>117796</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4732086679234557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4098793672993904</v>
+        <v>0.4033737184431039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5385780011662349</v>
+        <v>0.5410463879915978</v>
       </c>
     </row>
     <row r="18">
@@ -2961,19 +2961,19 @@
         <v>136442</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120590</v>
+        <v>120025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153259</v>
+        <v>153344</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4995765340335268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4415342488104514</v>
+        <v>0.4394653421460506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5611520899759744</v>
+        <v>0.5614616695965621</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>136673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119856</v>
+        <v>119771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152525</v>
+        <v>153090</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5004234659664732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4388479100240256</v>
+        <v>0.4385383304034379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5584657511895484</v>
+        <v>0.5605346578539495</v>
       </c>
     </row>
     <row r="21">
@@ -3052,19 +3052,19 @@
         <v>288524</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>264903</v>
+        <v>262398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>318771</v>
+        <v>316711</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4234382833356183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.388772209242973</v>
+        <v>0.3850957308990572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4678282246630129</v>
+        <v>0.464805002370919</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>392860</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>362613</v>
+        <v>364673</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>416481</v>
+        <v>418986</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5765617166643817</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5321717753369871</v>
+        <v>0.535194997629081</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.611227790757027</v>
+        <v>0.6149042691009428</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>415068</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>381425</v>
+        <v>384185</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>442328</v>
+        <v>444128</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5049101029428678</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.463985685667144</v>
+        <v>0.467342427951725</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5380705941935895</v>
+        <v>0.5402606045730803</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>406995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>379735</v>
+        <v>377935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>440638</v>
+        <v>437878</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4950898970571323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4619294058064106</v>
+        <v>0.4597393954269196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5360143143328561</v>
+        <v>0.5326575720482749</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>1757300</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4992770063475405</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>1762390</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1700381</v>
+        <v>1702656</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1826394</v>
+        <v>1822421</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5007229936524594</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4831054233183192</v>
+        <v>0.4837517888463151</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5189075711999318</v>
+        <v>0.5177787944621043</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>118755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105291</v>
+        <v>107427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130282</v>
+        <v>130938</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5828365772471649</v>
+        <v>0.582836577247165</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5167566200914073</v>
+        <v>0.527238351818977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6394098868424551</v>
+        <v>0.642627556358134</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>84999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73472</v>
+        <v>72816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98463</v>
+        <v>96327</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.417163422752835</v>
+        <v>0.4171634227528351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3605901131575449</v>
+        <v>0.3573724436418661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4832433799085927</v>
+        <v>0.4727616481810227</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>230743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212611</v>
+        <v>210176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>250733</v>
+        <v>249851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5358368182751603</v>
+        <v>0.5358368182751604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4937289064562158</v>
+        <v>0.4880751519264128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5822580448848943</v>
+        <v>0.5802084565139713</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>199879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179889</v>
+        <v>180771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218011</v>
+        <v>220446</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4641631817248396</v>
+        <v>0.4641631817248397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4177419551151056</v>
+        <v>0.4197915434860287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5062710935437842</v>
+        <v>0.5119248480735873</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>137858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123321</v>
+        <v>122992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150922</v>
+        <v>151099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5380248087361411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4812918303063506</v>
+        <v>0.4800073798592752</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5890139183581579</v>
+        <v>0.5897015970890601</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>118371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105307</v>
+        <v>105130</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132908</v>
+        <v>133237</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4619751912638589</v>
+        <v>0.4619751912638588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.410986081641842</v>
+        <v>0.4102984029109405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5187081696936495</v>
+        <v>0.5199926201407251</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>166721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149235</v>
+        <v>146878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183942</v>
+        <v>184329</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5188222008722091</v>
+        <v>0.5188222008722092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.46440543552368</v>
+        <v>0.4570711073876101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5724110243367283</v>
+        <v>0.5736150261831253</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>154625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137404</v>
+        <v>137017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172111</v>
+        <v>174468</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4811777991277908</v>
+        <v>0.4811777991277909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4275889756632717</v>
+        <v>0.4263849738168746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5355945644763199</v>
+        <v>0.54292889261239</v>
       </c>
     </row>
     <row r="15">
@@ -3811,19 +3811,19 @@
         <v>119840</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108419</v>
+        <v>109486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128576</v>
+        <v>128347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7128566589025104</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.644919841120566</v>
+        <v>0.65126487210228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7648163153847412</v>
+        <v>0.7634568188348114</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>48273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39537</v>
+        <v>39766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59694</v>
+        <v>58627</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2871433410974896</v>
+        <v>0.2871433410974895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.235183684615259</v>
+        <v>0.2365431811651885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3550801588794339</v>
+        <v>0.3487351278977202</v>
       </c>
     </row>
     <row r="18">
@@ -3902,19 +3902,19 @@
         <v>115329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103712</v>
+        <v>103184</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127014</v>
+        <v>127081</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5353384996228718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.481413552848805</v>
+        <v>0.4789644798188226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5895788926788552</v>
+        <v>0.5898878312178124</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>100103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88418</v>
+        <v>88351</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111720</v>
+        <v>112248</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4646615003771283</v>
+        <v>0.4646615003771282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4104211073211447</v>
+        <v>0.4101121687821874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5185864471511951</v>
+        <v>0.5210355201811774</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>328020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>306065</v>
+        <v>305768</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>349927</v>
+        <v>349615</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6111225270775844</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5702198232486317</v>
+        <v>0.5696649662309518</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.651936692068133</v>
+        <v>0.6513556272928479</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>208730</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>186823</v>
+        <v>187135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230685</v>
+        <v>230982</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3888774729224157</v>
+        <v>0.3888774729224156</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.348063307931867</v>
+        <v>0.3486443727071515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4297801767513683</v>
+        <v>0.4303350337690482</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>249226</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>225950</v>
+        <v>227025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>270403</v>
+        <v>271536</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3716229431002355</v>
+        <v>0.3716229431002356</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3369164654763032</v>
+        <v>0.3385193693323906</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4032007139186249</v>
+        <v>0.4048896961136431</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>421415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>400238</v>
+        <v>399105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>444691</v>
+        <v>443616</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6283770568997643</v>
+        <v>0.6283770568997644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5967992860813751</v>
+        <v>0.5951103038863574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6630835345236968</v>
+        <v>0.6614806306676094</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>1466492</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5232078792822897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>1336394</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1288151</v>
+        <v>1289358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1383189</v>
+        <v>1381476</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4767921207177104</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4595802666924089</v>
+        <v>0.4600109735278901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4934874539543671</v>
+        <v>0.4928762025469728</v>
       </c>
     </row>
     <row r="30">
